--- a/社团数据字典.xlsx
+++ b/社团数据字典.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86572\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A780492-7C51-4D4A-9D85-4798DAF96385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A83B3E5-01EC-4A87-8E9D-0C5367E36392}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8745" yWindow="2070" windowWidth="17280" windowHeight="10815" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="4350" windowWidth="17280" windowHeight="10815" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user用户表" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="88">
   <si>
     <r>
       <rPr>
@@ -273,10 +273,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>vip持续月份,分为1,3,6,12月</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>开通时间</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -402,6 +398,18 @@
   </si>
   <si>
     <t>默认为0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动开始时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动结束时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip持续月份,分为1,3,12月</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -837,7 +845,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -851,36 +859,36 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -897,7 +905,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1015,7 +1023,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466672F8-4274-49BF-BE1F-C0C3BA7780D7}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1092,7 +1102,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -1119,19 +1129,19 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1236,7 +1246,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACE8043-4D2A-41C3-AD6B-3D828F48D494}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1281,7 +1293,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -1290,10 +1302,10 @@
         <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1316,10 +1328,10 @@
         <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -1331,7 +1343,7 @@
         <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>39</v>
@@ -1340,7 +1352,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1452,7 +1464,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E82BCE-F88C-4FD8-9EB9-F7E8C4A231B0}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1480,7 +1494,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -1489,21 +1503,21 @@
         <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -1632,7 +1646,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658DE3F0-6F12-40EF-94C3-58ED77CA15C5}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1710,7 +1726,7 @@
         <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>37</v>
@@ -1718,14 +1734,16 @@
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>39</v>
@@ -1733,7 +1751,9 @@
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -1749,24 +1769,24 @@
         <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1957,7 +1977,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2086,7 +2106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439E7F73-8705-42D0-B3DA-CC2BCA90EC43}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2114,13 +2134,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -2131,13 +2151,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -2161,13 +2181,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -2182,7 +2202,7 @@
         <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -2191,19 +2211,19 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2368,16 +2388,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -2564,7 +2584,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2"/>
     </row>

--- a/社团数据字典.xlsx
+++ b/社团数据字典.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86572\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\Club-activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A83B3E5-01EC-4A87-8E9D-0C5367E36392}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6995E5-2C1B-4314-8211-43EFAA55C23B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="4350" windowWidth="17280" windowHeight="10815" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="4350" windowWidth="17280" windowHeight="10815" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user用户表" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="89">
   <si>
     <r>
       <rPr>
@@ -410,6 +410,10 @@
   </si>
   <si>
     <t>vip持续月份,分为1,3,12月</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK,FK_user(user_id)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1244,11 +1248,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACE8043-4D2A-41C3-AD6B-3D828F48D494}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1276,84 +1278,64 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
@@ -1438,20 +1420,6 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2106,7 +2074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439E7F73-8705-42D0-B3DA-CC2BCA90EC43}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>

--- a/社团数据字典.xlsx
+++ b/社团数据字典.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\Club-activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6995E5-2C1B-4314-8211-43EFAA55C23B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FF5899-89EE-49F6-87F7-6655334797F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="4350" windowWidth="17280" windowHeight="10815" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9090" yWindow="3645" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user用户表" sheetId="1" r:id="rId1"/>
     <sheet name="admin管理员表" sheetId="2" r:id="rId2"/>
-    <sheet name="vip_buy会员购买表" sheetId="5" r:id="rId3"/>
-    <sheet name="vip会员类型表" sheetId="9" r:id="rId4"/>
+    <sheet name="vip会员类型表" sheetId="9" r:id="rId3"/>
+    <sheet name="vip_buy会员购买表" sheetId="5" r:id="rId4"/>
     <sheet name="activity活动表" sheetId="3" r:id="rId5"/>
     <sheet name="activity_join活动参加表" sheetId="4" r:id="rId6"/>
     <sheet name="service服务包表" sheetId="6" r:id="rId7"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="94">
   <si>
     <r>
       <rPr>
@@ -119,10 +119,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>username</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>用户名/昵称</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -139,10 +135,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>hash处理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>status</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -381,10 +373,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>char(64)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>FK_vip(vip_type)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -414,6 +402,38 @@
   </si>
   <si>
     <t>PK,FK_user(user_id)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(40)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash SHA1加密 固定长度40</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动地点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -772,6 +792,263 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466672F8-4274-49BF-BE1F-C0C3BA7780D7}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -794,12 +1071,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -831,13 +1108,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -846,307 +1123,50 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466672F8-4274-49BF-BE1F-C0C3BA7780D7}">
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="23.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
@@ -1247,10 +1267,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACE8043-4D2A-41C3-AD6B-3D828F48D494}">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E82BCE-F88C-4FD8-9EB9-F7E8C4A231B0}">
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1261,7 +1281,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1273,33 +1293,35 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -1307,21 +1329,11 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
@@ -1421,20 +1433,24 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E82BCE-F88C-4FD8-9EB9-F7E8C4A231B0}">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACE8043-4D2A-41C3-AD6B-3D828F48D494}">
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1445,7 +1461,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1457,35 +1473,33 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -1493,11 +1507,21 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
@@ -1597,16 +1621,10 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1614,9 +1632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658DE3F0-6F12-40EF-94C3-58ED77CA15C5}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1627,7 +1643,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1639,12 +1655,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -1661,13 +1677,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -1676,13 +1692,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -1691,89 +1707,97 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
@@ -1869,7 +1893,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1881,12 +1905,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -1909,60 +1933,60 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2085,7 +2109,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2097,18 +2121,18 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -2119,13 +2143,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -2134,28 +2158,28 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -2164,13 +2188,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -2179,19 +2203,19 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2307,7 +2331,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2319,12 +2343,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -2347,25 +2371,25 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -2482,7 +2506,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2494,12 +2518,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -2516,16 +2540,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -2537,30 +2561,41 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
